--- a/biology/Botanique/Sydenham_Teast_Edwards/Sydenham_Teast_Edwards.xlsx
+++ b/biology/Botanique/Sydenham_Teast_Edwards/Sydenham_Teast_Edwards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sydenham Teast Edwards (né en 1768 à Usk, Monmouthshire, mort le 8 février 1819 à Queen's Elms, Brompton)  est un botaniste et illustrateur botanique britannique.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est baptisé le 5 août 1768 à Usk, dans le pays de Galles. Son talent pour copier des illustrations de l'ouvrage de William Curtis, Flora Londinensis est remarqué et Curtis le fait venir à Londres en 1786, où il se forme et illustre les publications de Curtis[1]. Il signe des illustrations dans le Curtis's Botanical Magazine dès 1788. Il contribue aussi à la Flora Londinensis et au New Botanic Garden. Il quitte le Curtis's Botanical Magazine pour créer son propre magazine, Botanists' Register en 1815[1]. Il meurt 8 février 1819, à son domicile de Queen's Elms, près de Brompton, et est enterré à l'église de Chelsea dont il est paroissien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est baptisé le 5 août 1768 à Usk, dans le pays de Galles. Son talent pour copier des illustrations de l'ouvrage de William Curtis, Flora Londinensis est remarqué et Curtis le fait venir à Londres en 1786, où il se forme et illustre les publications de Curtis. Il signe des illustrations dans le Curtis's Botanical Magazine dès 1788. Il contribue aussi à la Flora Londinensis et au New Botanic Garden. Il quitte le Curtis's Botanical Magazine pour créer son propre magazine, Botanists' Register en 1815. Il meurt 8 février 1819, à son domicile de Queen's Elms, près de Brompton, et est enterré à l'église de Chelsea dont il est paroissien.
 </t>
         </is>
       </c>
